--- a/model_data_2.xlsx
+++ b/model_data_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="B1:O1"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,1023 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.9389</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2760.194</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0_1.0_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.9412</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2937.572</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="L3" t="n">
+        <v>-0.128</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.003_0.50_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C4" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2921.165</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.122</v>
+      </c>
+      <c r="L4" t="n">
+        <v>-0.064</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.003_0.25_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>2774.263</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.122</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-0.064</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.001_0.25_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C6" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9393</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2749.307</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.134</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-0.449</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.001_0.50_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.9365</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>2761.086</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.001_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>2749.698</v>
+      </c>
+      <c r="K8" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="L8" t="n">
+        <v>-0.321</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0003_0.25_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.9455</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2791.257</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.117</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.096</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0003_0.50_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9413</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2744.831</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.129</v>
+      </c>
+      <c r="L10" t="n">
+        <v>-0.288</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0003_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C11" t="b">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8588</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="I11" t="n">
+        <v>93.669</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3673.474</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="L11" t="n">
+        <v>63.942</v>
+      </c>
+      <c r="M11" t="n">
+        <v>46</v>
+      </c>
+      <c r="N11" t="n">
+        <v>96.971</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.001_0.25_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C12" t="b">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.881</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5.905</v>
+      </c>
+      <c r="I12" t="n">
+        <v>74.895</v>
+      </c>
+      <c r="J12" t="n">
+        <v>3738.828</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.745</v>
+      </c>
+      <c r="L12" t="n">
+        <v>44.071</v>
+      </c>
+      <c r="M12" t="n">
+        <v>8</v>
+      </c>
+      <c r="N12" t="n">
+        <v>99.473</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.001_0.50_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8716</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H13" t="n">
+        <v>13.249</v>
+      </c>
+      <c r="I13" t="n">
+        <v>43.672</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4118.54</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="L13" t="n">
+        <v>31.955</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="n">
+        <v>99.73699999999999</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.001_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8639</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F14" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="I14" t="n">
+        <v>93.669</v>
+      </c>
+      <c r="J14" t="n">
+        <v>4103.091</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="L14" t="n">
+        <v>63.878</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>100</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.003_0.25_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8734</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F15" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.905</v>
+      </c>
+      <c r="I15" t="n">
+        <v>74.895</v>
+      </c>
+      <c r="J15" t="n">
+        <v>4113.815</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.512</v>
+      </c>
+      <c r="L15" t="n">
+        <v>51.538</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>100</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.003_0.50_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8611</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="I16" t="n">
+        <v>93.669</v>
+      </c>
+      <c r="J16" t="n">
+        <v>4082.075</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="L16" t="n">
+        <v>69.48699999999999</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>100</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0003_0.25_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8829</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H17" t="n">
+        <v>5.905</v>
+      </c>
+      <c r="I17" t="n">
+        <v>74.895</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4140.975</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.503</v>
+      </c>
+      <c r="L17" t="n">
+        <v>51.827</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>100</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0003_0.50_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.8986</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H18" t="n">
+        <v>13.249</v>
+      </c>
+      <c r="I18" t="n">
+        <v>43.672</v>
+      </c>
+      <c r="J18" t="n">
+        <v>4250.146</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="L18" t="n">
+        <v>32.083</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>100</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0003_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.8739</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H19" t="n">
+        <v>13.249</v>
+      </c>
+      <c r="I19" t="n">
+        <v>43.672</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3653.208</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.446</v>
+      </c>
+      <c r="L19" t="n">
+        <v>21.603</v>
+      </c>
+      <c r="M19" t="n">
+        <v>36</v>
+      </c>
+      <c r="N19" t="n">
+        <v>97.629</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.003_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9355</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>1.112</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>23.521</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3674.46</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1518.625</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.003_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/model_data_2.xlsx
+++ b/model_data_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1476,10 +1476,8 @@
           <t>resnet-50</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="C20" t="b">
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0.9355</v>
@@ -1519,6 +1517,485 @@
       <c r="O20" t="inlineStr">
         <is>
           <t>SGD_CAWR_0.003_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9165</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="I21" t="n">
+        <v>93.669</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3742.113</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.123</v>
+      </c>
+      <c r="L21" t="n">
+        <v>64.006</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1382.625</v>
+      </c>
+      <c r="N21" t="n">
+        <v>8.955</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.001_0.25_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.905</v>
+      </c>
+      <c r="I22" t="n">
+        <v>74.895</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3370.864</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.746</v>
+      </c>
+      <c r="L22" t="n">
+        <v>44.038</v>
+      </c>
+      <c r="M22" t="n">
+        <v>14</v>
+      </c>
+      <c r="N22" t="n">
+        <v>99.078</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.001_0.50_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C23" t="b">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9362</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H23" t="n">
+        <v>13.249</v>
+      </c>
+      <c r="I23" t="n">
+        <v>43.672</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3532.101</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.133</v>
+      </c>
+      <c r="L23" t="n">
+        <v>31.635</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="n">
+        <v>99.73699999999999</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.001_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C24" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9288999999999999</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="I24" t="n">
+        <v>93.669</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4157.501</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.952</v>
+      </c>
+      <c r="L24" t="n">
+        <v>69.48699999999999</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>100</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.003_0.25_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C25" t="b">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9398</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H25" t="n">
+        <v>5.905</v>
+      </c>
+      <c r="I25" t="n">
+        <v>74.895</v>
+      </c>
+      <c r="J25" t="n">
+        <v>3820.229</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L25" t="n">
+        <v>43.974</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>100</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.003_0.50_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C26" t="b">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9356</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H26" t="n">
+        <v>13.249</v>
+      </c>
+      <c r="I26" t="n">
+        <v>43.672</v>
+      </c>
+      <c r="J26" t="n">
+        <v>4100.81</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.123</v>
+      </c>
+      <c r="L26" t="n">
+        <v>31.955</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>100</v>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.003_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C27" t="b">
+        <v>0</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9334</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1.489</v>
+      </c>
+      <c r="I27" t="n">
+        <v>93.669</v>
+      </c>
+      <c r="J27" t="n">
+        <v>4055.483</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.954</v>
+      </c>
+      <c r="L27" t="n">
+        <v>69.423</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>100</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0003_0.25_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C28" t="b">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9454</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H28" t="n">
+        <v>5.905</v>
+      </c>
+      <c r="I28" t="n">
+        <v>74.895</v>
+      </c>
+      <c r="J28" t="n">
+        <v>4138.441</v>
+      </c>
+      <c r="K28" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="L28" t="n">
+        <v>44.327</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>100</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0003_0.50_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9408</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1.111</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="H29" t="n">
+        <v>13.249</v>
+      </c>
+      <c r="I29" t="n">
+        <v>43.672</v>
+      </c>
+      <c r="J29" t="n">
+        <v>4194.546</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L29" t="n">
+        <v>32.051</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>100</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_0.0003_0.75_600epoch</t>
         </is>
       </c>
     </row>

--- a/model_data_2.xlsx
+++ b/model_data_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1953,10 +1953,8 @@
           <t>resnet-50</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="C29" t="b">
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0.9408</v>
@@ -1996,6 +1994,61 @@
       <c r="O29" t="inlineStr">
         <is>
           <t>SGD_CAWR_0.0003_0.75_600epoch</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0.9338</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1.108</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H30" t="n">
+        <v>1.266</v>
+      </c>
+      <c r="I30" t="n">
+        <v>94.61799999999999</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3722.922</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.025</v>
+      </c>
+      <c r="L30" t="n">
+        <v>67.14700000000001</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1380.625</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9.087</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_test2_600epoch_global_cluster</t>
         </is>
       </c>
     </row>

--- a/model_data_2.xlsx
+++ b/model_data_2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,10 +2006,8 @@
           <t>resnet-50</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
+      <c r="C30" t="b">
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0.9338</v>
@@ -2047,6 +2045,61 @@
         <v>9.087</v>
       </c>
       <c r="O30" t="inlineStr">
+        <is>
+          <t>SGD_CAWR_test2_600epoch_global_cluster</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>resnet-50</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9418</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>1.109</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H31" t="n">
+        <v>2.921</v>
+      </c>
+      <c r="I31" t="n">
+        <v>87.581</v>
+      </c>
+      <c r="J31" t="n">
+        <v>3817.013</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="L31" t="n">
+        <v>59.327</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1386.625</v>
+      </c>
+      <c r="N31" t="n">
+        <v>8.692</v>
+      </c>
+      <c r="O31" t="inlineStr">
         <is>
           <t>SGD_CAWR_test2_600epoch_global_cluster</t>
         </is>
